--- a/Data Attributes for Fraud Analytics.xlsx
+++ b/Data Attributes for Fraud Analytics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vipul\BSA\AIA\Claims Transformation\Prepare for Delivery\Fraud Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4596D86E-247C-42D8-9929-CB71A15B298C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,8 +482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +521,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +567,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -700,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -708,17 +727,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,7 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -736,6 +747,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,19 +765,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,871 +1106,871 @@
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="23"/>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="6" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="28" t="s">
         <v>110</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="26"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="26" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="21"/>
+      <c r="C71" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="23"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="24" t="s">
         <v>122</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="25" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="26"/>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="19"/>
+      <c r="C80" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1958,5 +1984,6 @@
     <mergeCell ref="B67:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Attributes for Fraud Analytics.xlsx
+++ b/Data Attributes for Fraud Analytics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\machinelearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -747,6 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,21 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,10 +1152,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1166,8 +1166,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1178,8 +1178,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1200,8 +1200,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1242,8 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1265,8 +1265,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1277,8 +1277,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
@@ -1299,8 +1299,8 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="4" t="s">
         <v>138</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="4" t="s">
         <v>139</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1353,8 +1353,8 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1365,8 +1365,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1377,8 +1377,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1389,8 +1389,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1401,8 +1401,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1413,8 +1413,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
@@ -1455,8 +1455,8 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1467,8 +1467,8 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1479,8 +1479,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1511,8 @@
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="4" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="4" t="s">
         <v>29</v>
       </c>
@@ -1573,8 +1573,8 @@
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="4" t="s">
         <v>31</v>
       </c>
@@ -1593,8 +1593,8 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="4" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="4" t="s">
         <v>39</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -1685,8 +1685,8 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="28"/>
+      <c r="C56" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -1697,8 +1697,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -1721,10 +1721,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="4" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="4" t="s">
         <v>98</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="4" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="18"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="4" t="s">
         <v>45</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -1787,8 +1787,8 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="28" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="22" t="s">
         <v>110</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="26" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -1811,10 +1811,10 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="4"/>
@@ -1823,8 +1823,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B68" s="21"/>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -1835,8 +1835,8 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="21"/>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="28"/>
+      <c r="C69" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="21"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="28"/>
+      <c r="C70" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -1859,8 +1859,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="21"/>
-      <c r="C71" s="26" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="21"/>
-      <c r="C72" s="26" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="21"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="1" t="s">
         <v>116</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="1" t="s">
         <v>118</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -1917,8 +1917,8 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="24" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="1" t="s">
         <v>124</v>
       </c>
@@ -1939,8 +1939,8 @@
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -1951,8 +1951,8 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="18"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -1963,8 +1963,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="29" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="23" t="s">
         <v>129</v>
       </c>
       <c r="D80" s="1" t="s">

--- a/Data Attributes for Fraud Analytics.xlsx
+++ b/Data Attributes for Fraud Analytics.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\machinelearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thunder\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C0720EF-680A-48BE-B236-E3B433418011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan_Info" sheetId="7" r:id="rId2"/>
+    <sheet name="Insured_info" sheetId="6" r:id="rId3"/>
+    <sheet name="Biller_Provider" sheetId="3" r:id="rId4"/>
+    <sheet name="Render_provider" sheetId="4" r:id="rId5"/>
+    <sheet name="Mem_Info" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>Entity</t>
   </si>
@@ -477,12 +483,45 @@
   </si>
   <si>
     <t>* Data from multiple tables are merged into single dataset as given below and shared</t>
+  </si>
+  <si>
+    <t>Appolo</t>
+  </si>
+  <si>
+    <t>Ram Krishna</t>
+  </si>
+  <si>
+    <t>Seven Hills</t>
+  </si>
+  <si>
+    <t>Ramyas Clinic</t>
+  </si>
+  <si>
+    <t>Arjun Prasad</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>ins_id</t>
+  </si>
+  <si>
+    <t>bpc</t>
+  </si>
+  <si>
+    <t>rpc</t>
+  </si>
+  <si>
+    <t>mid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -780,10 +819,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,50 +1134,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1191,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="20" t="s">
         <v>56</v>
@@ -1177,7 +1217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="28"/>
       <c r="C9" s="20" t="s">
         <v>9</v>
@@ -1189,7 +1229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1199,7 +1239,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="17" t="s">
         <v>6</v>
@@ -1211,7 +1251,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1221,7 +1261,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1231,7 +1271,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1241,7 +1281,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
       <c r="C15" s="20" t="s">
         <v>97</v>
@@ -1253,7 +1293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
         <v>52</v>
       </c>
@@ -1264,7 +1304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="20" t="s">
         <v>135</v>
@@ -1276,7 +1316,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>55</v>
@@ -1288,7 +1328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>136</v>
@@ -1298,7 +1338,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="17" t="s">
         <v>137</v>
@@ -1310,7 +1350,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -1320,7 +1360,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="4" t="s">
         <v>139</v>
@@ -1330,7 +1370,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="4" t="s">
         <v>54</v>
@@ -1340,7 +1380,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1392,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
       <c r="C25" s="17" t="s">
         <v>13</v>
@@ -1364,7 +1404,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="20" t="s">
         <v>95</v>
@@ -1376,7 +1416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
       <c r="C27" s="20" t="s">
         <v>14</v>
@@ -1388,7 +1428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="20" t="s">
         <v>15</v>
@@ -1400,7 +1440,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="20" t="s">
         <v>16</v>
@@ -1412,7 +1452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="20" t="s">
         <v>17</v>
@@ -1424,7 +1464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -1434,7 +1474,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="28"/>
       <c r="C32" s="4" t="s">
         <v>19</v>
@@ -1444,7 +1484,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
       <c r="C33" s="4" t="s">
         <v>20</v>
@@ -1454,7 +1494,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
       <c r="C34" s="21" t="s">
         <v>101</v>
@@ -1466,7 +1506,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
       <c r="C35" s="21" t="s">
         <v>102</v>
@@ -1478,7 +1518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
       <c r="C36" s="21" t="s">
         <v>21</v>
@@ -1490,7 +1530,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
       <c r="C37" s="4" t="s">
         <v>22</v>
@@ -1500,7 +1540,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="4" t="s">
         <v>23</v>
@@ -1510,7 +1550,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="28"/>
       <c r="C39" s="20" t="s">
         <v>24</v>
@@ -1522,7 +1562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
@@ -1532,7 +1572,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="28"/>
       <c r="C41" s="4" t="s">
         <v>26</v>
@@ -1542,7 +1582,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="4" t="s">
         <v>27</v>
@@ -1552,7 +1592,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="28"/>
       <c r="C43" s="4" t="s">
         <v>28</v>
@@ -1562,7 +1602,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="28"/>
       <c r="C44" s="4" t="s">
         <v>29</v>
@@ -1572,7 +1612,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="28"/>
       <c r="C45" s="20" t="s">
         <v>30</v>
@@ -1584,7 +1624,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1592,7 +1632,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="28"/>
       <c r="C47" s="20" t="s">
         <v>32</v>
@@ -1604,7 +1644,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="28"/>
       <c r="C48" s="4" t="s">
         <v>33</v>
@@ -1614,7 +1654,7 @@
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
       <c r="C49" s="4" t="s">
         <v>34</v>
@@ -1624,7 +1664,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="C50" s="4" t="s">
         <v>35</v>
@@ -1634,7 +1674,7 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="C51" s="4" t="s">
         <v>36</v>
@@ -1644,7 +1684,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="C52" s="4" t="s">
         <v>37</v>
@@ -1654,7 +1694,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="C53" s="4" t="s">
         <v>38</v>
@@ -1664,7 +1704,7 @@
       </c>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="C54" s="4" t="s">
         <v>39</v>
@@ -1674,7 +1714,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="28"/>
       <c r="C55" s="4" t="s">
         <v>40</v>
@@ -1684,7 +1724,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="28"/>
       <c r="C56" s="20" t="s">
         <v>141</v>
@@ -1696,7 +1736,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="20" t="s">
         <v>144</v>
@@ -1708,7 +1748,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
       <c r="C58" s="20" t="s">
         <v>145</v>
@@ -1720,7 +1760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>41</v>
       </c>
@@ -1734,7 +1774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="25"/>
       <c r="C60" s="4" t="s">
         <v>43</v>
@@ -1744,7 +1784,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="25"/>
       <c r="C61" s="4" t="s">
         <v>98</v>
@@ -1754,7 +1794,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="25"/>
       <c r="C62" s="4" t="s">
         <v>44</v>
@@ -1764,7 +1804,7 @@
       </c>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="25"/>
       <c r="C63" s="4" t="s">
         <v>45</v>
@@ -1774,7 +1814,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="25"/>
       <c r="C64" s="17" t="s">
         <v>107</v>
@@ -1786,7 +1826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="25"/>
       <c r="C65" s="22" t="s">
         <v>110</v>
@@ -1798,7 +1838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="26"/>
       <c r="C66" s="20" t="s">
         <v>112</v>
@@ -1810,7 +1850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +1862,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B68" s="28"/>
       <c r="C68" s="20" t="s">
         <v>48</v>
@@ -1834,7 +1874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="28"/>
       <c r="C69" s="20" t="s">
         <v>49</v>
@@ -1846,7 +1886,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B70" s="28"/>
       <c r="C70" s="20" t="s">
         <v>114</v>
@@ -1858,7 +1898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="28"/>
       <c r="C71" s="20" t="s">
         <v>50</v>
@@ -1870,7 +1910,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="28"/>
       <c r="C72" s="20" t="s">
         <v>51</v>
@@ -1882,7 +1922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="28"/>
       <c r="C73" s="1" t="s">
         <v>116</v>
@@ -1892,7 +1932,7 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="C74" s="1" t="s">
         <v>118</v>
@@ -1902,7 +1942,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="24" t="s">
         <v>131</v>
       </c>
@@ -1916,7 +1956,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
       <c r="C76" s="18" t="s">
         <v>122</v>
@@ -1928,7 +1968,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
       <c r="C77" s="1" t="s">
         <v>124</v>
@@ -1938,7 +1978,7 @@
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
       <c r="C78" s="19" t="s">
         <v>125</v>
@@ -1950,7 +1990,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="25"/>
       <c r="C79" s="19" t="s">
         <v>127</v>
@@ -1962,7 +2002,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B80" s="26"/>
       <c r="C80" s="23" t="s">
         <v>129</v>
@@ -1986,4 +2026,644 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CB6818-266A-4CCB-BF66-2835E4168E9C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D9E36A-EA4D-4C84-A5BD-C5A3D40AC897}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>105696</v>
+      </c>
+      <c r="C2" s="30">
+        <v>35350</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>456987</v>
+      </c>
+      <c r="C3" s="30">
+        <v>34467</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>124598</v>
+      </c>
+      <c r="C4" s="30">
+        <v>32975</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>453128</v>
+      </c>
+      <c r="C5" s="30">
+        <v>31552</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>789641</v>
+      </c>
+      <c r="C6" s="30">
+        <v>31789</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>154987</v>
+      </c>
+      <c r="C7" s="30">
+        <v>36234</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7AA6C-DF0C-47E8-910E-39CC8EA027EE}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>534067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>537612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>146723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>530043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>600092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479D8CB-26A6-47B3-A4C7-3C891EA7EB4D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>653214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>204</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>456982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>987325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>986541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>325478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1296F9DC-48FF-4178-BE0E-580EF6C5F897}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <v>10002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>10003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>10004</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>10005</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>10006</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Attributes for Fraud Analytics.xlsx
+++ b/Data Attributes for Fraud Analytics.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thunder\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\machinelearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C0720EF-680A-48BE-B236-E3B433418011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan_Info" sheetId="7" r:id="rId2"/>
-    <sheet name="Insured_info" sheetId="6" r:id="rId3"/>
-    <sheet name="Biller_Provider" sheetId="3" r:id="rId4"/>
-    <sheet name="Render_provider" sheetId="4" r:id="rId5"/>
-    <sheet name="Mem_Info" sheetId="5" r:id="rId6"/>
+    <sheet name="claim_info" sheetId="8" r:id="rId2"/>
+    <sheet name="Plan_Info" sheetId="7" r:id="rId3"/>
+    <sheet name="Insured_info" sheetId="6" r:id="rId4"/>
+    <sheet name="Biller_Provider" sheetId="3" r:id="rId5"/>
+    <sheet name="Render_provider" sheetId="4" r:id="rId6"/>
+    <sheet name="Mem_Info" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="203">
   <si>
     <t>Entity</t>
   </si>
@@ -516,12 +516,135 @@
   </si>
   <si>
     <t>mid</t>
+  </si>
+  <si>
+    <t>Insert oropharyn airway</t>
+  </si>
+  <si>
+    <t>Excision of anus</t>
+  </si>
+  <si>
+    <t>Heart countershock NEC</t>
+  </si>
+  <si>
+    <t>Rubella vaccination</t>
+  </si>
+  <si>
+    <t>Other CAS</t>
+  </si>
+  <si>
+    <t>Resp tract intubat NEC</t>
+  </si>
+  <si>
+    <t>Insertion of iud</t>
+  </si>
+  <si>
+    <t>Close red-int fix toe fx</t>
+  </si>
+  <si>
+    <t>Gum biopsy</t>
+  </si>
+  <si>
+    <t>Breast split-thick graft</t>
+  </si>
+  <si>
+    <t>Mri musculoskeletal</t>
+  </si>
+  <si>
+    <t>Vaginal reconstruction</t>
+  </si>
+  <si>
+    <t>Anesth inject-spin canal</t>
+  </si>
+  <si>
+    <t>D &amp; C NEC</t>
+  </si>
+  <si>
+    <t>Part excis pituitary NOS</t>
+  </si>
+  <si>
+    <t>Other bronchoscopy</t>
+  </si>
+  <si>
+    <t>Cell blk/pap NEC</t>
+  </si>
+  <si>
+    <t>C &amp; s NEC</t>
+  </si>
+  <si>
+    <t>Retroperiton fistulogram</t>
+  </si>
+  <si>
+    <t>Remove abdomen device NEC</t>
+  </si>
+  <si>
+    <t>Excision or destruction of other lesion or tissue of heart, endovascular approach</t>
+  </si>
+  <si>
+    <t>Other dental restoration</t>
+  </si>
+  <si>
+    <t>Partial gastrectomy with anastomosis to duodenum</t>
+  </si>
+  <si>
+    <t>Cricopharyngeal myotomy</t>
+  </si>
+  <si>
+    <t>Limb shortening procedures, tarsals and metatarsals</t>
+  </si>
+  <si>
+    <t>Other bunionectomy with soft tissue correction</t>
+  </si>
+  <si>
+    <t>Pulmonary artery wedge monitoring</t>
+  </si>
+  <si>
+    <t>Excision or destruction of lesion of chest wall</t>
+  </si>
+  <si>
+    <t>Color vision study</t>
+  </si>
+  <si>
+    <t>Repair of entropion or ectropion by suture technique</t>
+  </si>
+  <si>
+    <t>Application of external fixator device, humerus</t>
+  </si>
+  <si>
+    <t>Repair of current obstetric laceration of cervix</t>
+  </si>
+  <si>
+    <t>Other stapedectomy</t>
+  </si>
+  <si>
+    <t>Reconstruction of surgically divided vas deferens</t>
+  </si>
+  <si>
+    <t>Incision of vessel, unspecified site</t>
+  </si>
+  <si>
+    <t>Extracorporeal shockwave lithotripsy of other sites</t>
+  </si>
+  <si>
+    <t>Dental examination</t>
+  </si>
+  <si>
+    <t>Removal of both testes at same operative episode</t>
+  </si>
+  <si>
+    <t>Stretching of muscle or tendon</t>
+  </si>
+  <si>
+    <t>Incision of lymphatic structures</t>
+  </si>
+  <si>
+    <t>RESULT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -801,6 +924,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,11 +949,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1134,50 +1263,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1320,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -1205,8 +1334,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
       <c r="C8" s="20" t="s">
         <v>56</v>
       </c>
@@ -1217,8 +1346,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
       <c r="C9" s="20" t="s">
         <v>9</v>
       </c>
@@ -1229,8 +1358,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1239,8 +1368,8 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
       <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
@@ -1251,8 +1380,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1261,8 +1390,8 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1271,8 +1400,8 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1281,8 +1410,8 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
       <c r="C15" s="20" t="s">
         <v>97</v>
       </c>
@@ -1293,8 +1422,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1304,8 +1433,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
       <c r="C17" s="20" t="s">
         <v>135</v>
       </c>
@@ -1316,8 +1445,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
       <c r="C18" s="20" t="s">
         <v>55</v>
       </c>
@@ -1328,8 +1457,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
       <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
@@ -1338,8 +1467,8 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
       <c r="C20" s="17" t="s">
         <v>137</v>
       </c>
@@ -1350,8 +1479,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
       <c r="C21" s="4" t="s">
         <v>138</v>
       </c>
@@ -1360,8 +1489,8 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
       <c r="C22" s="4" t="s">
         <v>139</v>
       </c>
@@ -1370,8 +1499,8 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
       <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1380,8 +1509,8 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1392,8 +1521,8 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
       <c r="C25" s="17" t="s">
         <v>13</v>
       </c>
@@ -1404,8 +1533,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
@@ -1416,8 +1545,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
       <c r="C27" s="20" t="s">
         <v>14</v>
       </c>
@@ -1428,8 +1557,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
       <c r="C28" s="20" t="s">
         <v>15</v>
       </c>
@@ -1440,8 +1569,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
       <c r="C29" s="20" t="s">
         <v>16</v>
       </c>
@@ -1452,8 +1581,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
       <c r="C30" s="20" t="s">
         <v>17</v>
       </c>
@@ -1464,8 +1593,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
@@ -1474,8 +1603,8 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
@@ -1484,8 +1613,8 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
       <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1623,8 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
       <c r="C34" s="21" t="s">
         <v>101</v>
       </c>
@@ -1506,8 +1635,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
       <c r="C35" s="21" t="s">
         <v>102</v>
       </c>
@@ -1518,8 +1647,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
       <c r="C36" s="21" t="s">
         <v>21</v>
       </c>
@@ -1530,8 +1659,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
@@ -1540,8 +1669,8 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
       <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
@@ -1550,8 +1679,8 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
       <c r="C39" s="20" t="s">
         <v>24</v>
       </c>
@@ -1562,8 +1691,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
@@ -1572,8 +1701,8 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="28"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
       <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
@@ -1582,8 +1711,8 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
@@ -1592,8 +1721,8 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
       <c r="C43" s="4" t="s">
         <v>28</v>
       </c>
@@ -1602,8 +1731,8 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="28"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
       <c r="C44" s="4" t="s">
         <v>29</v>
       </c>
@@ -1612,8 +1741,8 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="28"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
       <c r="C45" s="20" t="s">
         <v>30</v>
       </c>
@@ -1624,16 +1753,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="28"/>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
       <c r="C46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="28"/>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
       <c r="C47" s="20" t="s">
         <v>32</v>
       </c>
@@ -1644,8 +1773,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
       <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
@@ -1654,8 +1783,8 @@
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
       <c r="C49" s="4" t="s">
         <v>34</v>
       </c>
@@ -1664,8 +1793,8 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
       <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
@@ -1674,8 +1803,8 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
@@ -1684,8 +1813,8 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
       <c r="C52" s="4" t="s">
         <v>37</v>
       </c>
@@ -1694,8 +1823,8 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="33"/>
       <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
@@ -1704,8 +1833,8 @@
       </c>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
       <c r="C54" s="4" t="s">
         <v>39</v>
       </c>
@@ -1714,8 +1843,8 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="28"/>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -1724,8 +1853,8 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="28"/>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="33"/>
       <c r="C56" s="20" t="s">
         <v>141</v>
       </c>
@@ -1736,8 +1865,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
       <c r="C57" s="20" t="s">
         <v>144</v>
       </c>
@@ -1748,8 +1877,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="34"/>
       <c r="C58" s="20" t="s">
         <v>145</v>
       </c>
@@ -1760,8 +1889,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="24" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -1774,8 +1903,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
       <c r="C60" s="4" t="s">
         <v>43</v>
       </c>
@@ -1784,8 +1913,8 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="30"/>
       <c r="C61" s="4" t="s">
         <v>98</v>
       </c>
@@ -1794,8 +1923,8 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
       <c r="C62" s="4" t="s">
         <v>44</v>
       </c>
@@ -1804,8 +1933,8 @@
       </c>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="25"/>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="30"/>
       <c r="C63" s="4" t="s">
         <v>45</v>
       </c>
@@ -1814,8 +1943,8 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="25"/>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
       <c r="C64" s="17" t="s">
         <v>107</v>
       </c>
@@ -1826,8 +1955,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="25"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
       <c r="C65" s="22" t="s">
         <v>110</v>
       </c>
@@ -1838,8 +1967,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="26"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="31"/>
       <c r="C66" s="20" t="s">
         <v>112</v>
       </c>
@@ -1850,8 +1979,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="27" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="32" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -1862,8 +1991,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
+    <row r="68" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B68" s="33"/>
       <c r="C68" s="20" t="s">
         <v>48</v>
       </c>
@@ -1874,8 +2003,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="33"/>
       <c r="C69" s="20" t="s">
         <v>49</v>
       </c>
@@ -1886,8 +2015,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="28"/>
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="33"/>
       <c r="C70" s="20" t="s">
         <v>114</v>
       </c>
@@ -1898,8 +2027,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="33"/>
       <c r="C71" s="20" t="s">
         <v>50</v>
       </c>
@@ -1910,8 +2039,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="28"/>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="33"/>
       <c r="C72" s="20" t="s">
         <v>51</v>
       </c>
@@ -1922,8 +2051,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="33"/>
       <c r="C73" s="1" t="s">
         <v>116</v>
       </c>
@@ -1932,8 +2061,8 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
+    <row r="74" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="34"/>
       <c r="C74" s="1" t="s">
         <v>118</v>
       </c>
@@ -1942,8 +2071,8 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="24" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="29" t="s">
         <v>131</v>
       </c>
       <c r="C75" s="18" t="s">
@@ -1956,8 +2085,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="30"/>
       <c r="C76" s="18" t="s">
         <v>122</v>
       </c>
@@ -1968,8 +2097,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="25"/>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="30"/>
       <c r="C77" s="1" t="s">
         <v>124</v>
       </c>
@@ -1978,8 +2107,8 @@
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="25"/>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="30"/>
       <c r="C78" s="19" t="s">
         <v>125</v>
       </c>
@@ -1990,8 +2119,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="30"/>
       <c r="C79" s="19" t="s">
         <v>127</v>
       </c>
@@ -2002,8 +2131,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
+    <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="31"/>
       <c r="C80" s="23" t="s">
         <v>129</v>
       </c>
@@ -2029,301 +2158,1553 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CB6818-266A-4CCB-BF66-2835E4168E9C}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>48</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <f ca="1">RANDBETWEEN(1,9)</f>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(100000,500000)</f>
+        <v>287870</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8814</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="24">
+        <v>41680</v>
+      </c>
+      <c r="G2" s="24">
+        <v>41667</v>
+      </c>
+      <c r="H2" s="24">
+        <v>41698</v>
+      </c>
+      <c r="I2">
+        <f ca="1">RANDBETWEEN(500000,1000000)</f>
+        <v>677656</v>
+      </c>
+      <c r="J2">
+        <v>8251</v>
+      </c>
+      <c r="K2">
+        <v>7092</v>
+      </c>
+      <c r="L2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M21" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>400</v>
+      </c>
+      <c r="O2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1001</v>
+      </c>
+      <c r="S2">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1020</v>
+      </c>
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(1,9)</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" ca="1" si="1">RANDBETWEEN(100000,500000)</f>
+        <v>453071</v>
+      </c>
+      <c r="D3">
+        <v>9183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="24">
+        <v>38731</v>
+      </c>
+      <c r="G3" s="24">
+        <v>39096</v>
+      </c>
+      <c r="H3" s="24">
+        <v>39099</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" ca="1" si="2">RANDBETWEEN(500000,1000000)</f>
+        <v>933852</v>
+      </c>
+      <c r="J3">
+        <v>8192</v>
+      </c>
+      <c r="K3">
+        <v>9002</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" ca="1" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>9327</v>
+      </c>
+      <c r="O3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <f ca="1">RANDBETWEEN(10001,10006)</f>
+        <v>10006</v>
+      </c>
+      <c r="S3">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T21" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1030</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B21" ca="1" si="5">RANDBETWEEN(1,9)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>479002</v>
+      </c>
+      <c r="D4">
+        <v>9186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="24">
+        <v>39506</v>
+      </c>
+      <c r="G4" s="24">
+        <v>39486</v>
+      </c>
+      <c r="H4" s="24">
+        <v>39546</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="2"/>
+        <v>879564</v>
+      </c>
+      <c r="J4">
+        <v>7351</v>
+      </c>
+      <c r="K4">
+        <v>7849</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6241</v>
+      </c>
+      <c r="O4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1001</v>
+      </c>
+      <c r="R4">
+        <f ca="1">RANDBETWEEN(201,205)</f>
+        <v>203</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1040</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>310506</v>
+      </c>
+      <c r="D5">
+        <v>3323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="24">
+        <v>43442</v>
+      </c>
+      <c r="G5" s="24">
+        <v>43381</v>
+      </c>
+      <c r="H5" s="24">
+        <v>43391</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>729318</v>
+      </c>
+      <c r="J5">
+        <v>7870</v>
+      </c>
+      <c r="K5">
+        <v>522</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>8931</v>
+      </c>
+      <c r="O5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5">
+        <f ca="1">RANDBETWEEN(10001,10006)</f>
+        <v>10003</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R7" ca="1" si="6">RANDBETWEEN(201,205)</f>
+        <v>203</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1050</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f ca="1">RANDBETWEEN(100000,500000)</f>
+        <v>227530</v>
+      </c>
+      <c r="D6">
+        <v>763</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="24">
+        <v>37374</v>
+      </c>
+      <c r="G6" s="24">
+        <v>37366</v>
+      </c>
+      <c r="H6" s="24">
+        <v>37427</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>953256</v>
+      </c>
+      <c r="J6">
+        <v>7301</v>
+      </c>
+      <c r="K6">
+        <v>2129</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>9859</v>
+      </c>
+      <c r="O6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q6">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1001</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1060</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>386872</v>
+      </c>
+      <c r="D7">
+        <v>9786</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="24">
+        <v>39951</v>
+      </c>
+      <c r="G7" s="24">
+        <v>39921</v>
+      </c>
+      <c r="H7" s="24">
+        <v>39931</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="2"/>
+        <v>967270</v>
+      </c>
+      <c r="J7">
+        <v>8462</v>
+      </c>
+      <c r="K7">
+        <v>9931</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3800</v>
+      </c>
+      <c r="O7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7">
+        <f ca="1">RANDBETWEEN(10001,10006)</f>
+        <v>10005</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="6"/>
+        <v>205</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1070</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>261590</v>
+      </c>
+      <c r="D8">
+        <v>6909</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="24">
+        <v>38731</v>
+      </c>
+      <c r="G8" s="24">
+        <v>38727</v>
+      </c>
+      <c r="H8" s="24">
+        <v>38939</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="2"/>
+        <v>866314</v>
+      </c>
+      <c r="J8">
+        <v>8365</v>
+      </c>
+      <c r="K8">
+        <v>8098</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>6382</v>
+      </c>
+      <c r="O8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1005</v>
+      </c>
+      <c r="S8">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1080</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>247747</v>
+      </c>
+      <c r="D9">
+        <v>391</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="24">
+        <v>39486</v>
+      </c>
+      <c r="G9" s="24">
+        <v>39121</v>
+      </c>
+      <c r="H9" s="24">
+        <v>39241</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="2"/>
+        <v>612134</v>
+      </c>
+      <c r="J9">
+        <v>5788</v>
+      </c>
+      <c r="K9">
+        <v>4542</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1919</v>
+      </c>
+      <c r="O9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P11" ca="1" si="7">RANDBETWEEN(10001,10006)</f>
+        <v>10001</v>
+      </c>
+      <c r="R9">
+        <f ca="1">RANDBETWEEN(201,205)</f>
+        <v>201</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1090</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>319462</v>
+      </c>
+      <c r="D10">
+        <v>7062</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="24">
+        <v>38411</v>
+      </c>
+      <c r="G10" s="24">
+        <v>38349</v>
+      </c>
+      <c r="H10" s="24">
+        <v>38352</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="2"/>
+        <v>768426</v>
+      </c>
+      <c r="J10">
+        <v>5839</v>
+      </c>
+      <c r="K10">
+        <v>3972</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>7551</v>
+      </c>
+      <c r="O10" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="7"/>
+        <v>10003</v>
+      </c>
+      <c r="S10">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>484319</v>
+      </c>
+      <c r="D11">
+        <v>8894</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="24">
+        <v>39791</v>
+      </c>
+      <c r="G11" s="24">
+        <v>39730</v>
+      </c>
+      <c r="H11" s="24">
+        <v>39669</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="2"/>
+        <v>635640</v>
+      </c>
+      <c r="J11">
+        <v>3473</v>
+      </c>
+      <c r="K11">
+        <v>9185</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>7812</v>
+      </c>
+      <c r="O11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="7"/>
+        <v>10004</v>
+      </c>
+      <c r="R11">
+        <f ca="1">RANDBETWEEN(201,205)</f>
+        <v>205</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1110</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>145999</v>
+      </c>
+      <c r="D12">
+        <v>8582</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="24">
+        <v>38731</v>
+      </c>
+      <c r="G12" s="24">
+        <v>38723</v>
+      </c>
+      <c r="H12" s="24">
+        <v>38843</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="2"/>
+        <v>898982</v>
+      </c>
+      <c r="J12">
+        <v>8535</v>
+      </c>
+      <c r="K12">
+        <v>3991</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>842</v>
+      </c>
+      <c r="O12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q12">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1003</v>
+      </c>
+      <c r="S12">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1120</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>313286</v>
+      </c>
+      <c r="D13">
+        <v>2411</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="24">
+        <v>41647</v>
+      </c>
+      <c r="G13" s="24">
+        <v>41640</v>
+      </c>
+      <c r="H13" s="24">
+        <v>41650</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="2"/>
+        <v>994051</v>
+      </c>
+      <c r="J13">
+        <v>6522</v>
+      </c>
+      <c r="K13">
+        <v>7271</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9506</v>
+      </c>
+      <c r="O13" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P16" ca="1" si="8">RANDBETWEEN(10001,10006)</f>
+        <v>10005</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R14" ca="1" si="9">RANDBETWEEN(201,205)</f>
+        <v>205</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1130</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>432919</v>
+      </c>
+      <c r="D14">
+        <v>7918</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="24">
+        <v>43462</v>
+      </c>
+      <c r="G14" s="24">
+        <v>43444</v>
+      </c>
+      <c r="H14" s="24">
+        <v>43475</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="2"/>
+        <v>575750</v>
+      </c>
+      <c r="J14">
+        <v>6831</v>
+      </c>
+      <c r="K14">
+        <v>9045</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>344</v>
+      </c>
+      <c r="O14" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="9"/>
+        <v>201</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>281357</v>
+      </c>
+      <c r="D15">
+        <v>697</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="24">
+        <v>37200</v>
+      </c>
+      <c r="G15" s="24">
+        <v>37165</v>
+      </c>
+      <c r="H15" s="24">
+        <v>37196</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="2"/>
+        <v>597832</v>
+      </c>
+      <c r="J15">
+        <v>2732</v>
+      </c>
+      <c r="K15">
+        <v>7888</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>8964</v>
+      </c>
+      <c r="O15" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="8"/>
+        <v>10004</v>
+      </c>
+      <c r="S15">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1150</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>289469</v>
+      </c>
+      <c r="D16">
+        <v>9605</v>
+      </c>
+      <c r="E16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="24">
+        <v>39486</v>
+      </c>
+      <c r="G16" s="24">
+        <v>39424</v>
+      </c>
+      <c r="H16" s="24">
+        <v>39444</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="2"/>
+        <v>818252</v>
+      </c>
+      <c r="J16">
+        <v>4931</v>
+      </c>
+      <c r="K16">
+        <v>7828</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7753</v>
+      </c>
+      <c r="O16" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="8"/>
+        <v>10005</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R17" ca="1" si="10">RANDBETWEEN(201,205)</f>
+        <v>205</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1160</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>405109</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="24">
+        <v>37087</v>
+      </c>
+      <c r="G17" s="24">
+        <v>37026</v>
+      </c>
+      <c r="H17" s="24">
+        <v>37036</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="2"/>
+        <v>705175</v>
+      </c>
+      <c r="J17">
+        <v>5900</v>
+      </c>
+      <c r="K17">
+        <v>3852</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>7828</v>
+      </c>
+      <c r="O17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1004</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1170</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>321064</v>
+      </c>
+      <c r="D18">
+        <v>9947</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="24">
+        <v>37200</v>
+      </c>
+      <c r="G18" s="24">
+        <v>37169</v>
+      </c>
+      <c r="H18" s="24">
+        <v>37200</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="2"/>
+        <v>638315</v>
+      </c>
+      <c r="J18">
+        <v>6199</v>
+      </c>
+      <c r="K18">
+        <v>721</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2931</v>
+      </c>
+      <c r="O18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P19" ca="1" si="11">RANDBETWEEN(10001,10006)</f>
+        <v>10002</v>
+      </c>
+      <c r="S18">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>12</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1180</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>497242</v>
+      </c>
+      <c r="D19">
+        <v>9962</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="24">
+        <v>40821</v>
+      </c>
+      <c r="G19" s="24">
+        <v>40787</v>
+      </c>
+      <c r="H19" s="24">
+        <v>40797</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="2"/>
+        <v>855192</v>
+      </c>
+      <c r="J19">
+        <v>1475</v>
+      </c>
+      <c r="K19">
+        <v>8197</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>436</v>
+      </c>
+      <c r="O19" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="11"/>
+        <v>10004</v>
+      </c>
+      <c r="R19">
+        <f ca="1">RANDBETWEEN(201,205)</f>
+        <v>201</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1190</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>119866</v>
+      </c>
+      <c r="D20">
+        <v>496</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="24">
+        <v>43442</v>
+      </c>
+      <c r="G20" s="24">
+        <v>43381</v>
+      </c>
+      <c r="H20" s="24">
+        <v>43422</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
+        <v>560153</v>
+      </c>
+      <c r="J20">
+        <v>944</v>
+      </c>
+      <c r="K20">
+        <v>2764</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2349</v>
+      </c>
+      <c r="O20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1006</v>
+      </c>
+      <c r="S20">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>104</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>105</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>271641</v>
+      </c>
+      <c r="D21">
+        <v>9602</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="24">
+        <v>37564</v>
+      </c>
+      <c r="G21" s="24">
+        <v>37533</v>
+      </c>
+      <c r="H21" s="24">
+        <v>37599</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>510198</v>
+      </c>
+      <c r="J21">
+        <v>5194</v>
+      </c>
+      <c r="K21">
+        <v>3194</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3734</v>
+      </c>
+      <c r="O21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q21">
+        <f ca="1">RANDBETWEEN(1001,1006)</f>
+        <v>1005</v>
+      </c>
+      <c r="S21">
+        <f ca="1">RANDBETWEEN(11,15)</f>
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D9E36A-EA4D-4C84-A5BD-C5A3D40AC897}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>105696</v>
-      </c>
-      <c r="C2" s="30">
-        <v>35350</v>
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3">
-        <v>456987</v>
-      </c>
-      <c r="C3" s="30">
-        <v>34467</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10003</v>
-      </c>
-      <c r="B4">
-        <v>124598</v>
-      </c>
-      <c r="C4" s="30">
-        <v>32975</v>
-      </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10004</v>
-      </c>
-      <c r="B5">
-        <v>453128</v>
-      </c>
-      <c r="C5" s="30">
-        <v>31552</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10005</v>
-      </c>
-      <c r="B6">
-        <v>789641</v>
-      </c>
-      <c r="C6" s="30">
-        <v>31789</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10006</v>
-      </c>
-      <c r="B7">
-        <v>154987</v>
-      </c>
-      <c r="C7" s="30">
-        <v>36234</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2332,22 +3713,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7AA6C-DF0C-47E8-910E-39CC8EA027EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>105696</v>
+      </c>
+      <c r="C2" s="24">
+        <v>35350</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>456987</v>
+      </c>
+      <c r="C3" s="24">
+        <v>34467</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>124598</v>
+      </c>
+      <c r="C4" s="24">
+        <v>32975</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>453128</v>
+      </c>
+      <c r="C5" s="24">
+        <v>31552</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>789641</v>
+      </c>
+      <c r="C6" s="24">
+        <v>31789</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>154987</v>
+      </c>
+      <c r="C7" s="24">
+        <v>36234</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -2361,12 +3904,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2375,12 +3918,12 @@
         <v>534067</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2389,12 +3932,12 @@
         <v>537612</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2403,12 +3946,12 @@
         <v>146723</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -2417,104 +3960,18 @@
         <v>530043</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
         <v>600092</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479D8CB-26A6-47B3-A4C7-3C891EA7EB4D}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>201</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>653214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>204</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>456982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>987325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>203</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>986541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>205</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>325478</v>
       </c>
     </row>
   </sheetData>
@@ -2523,22 +3980,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1296F9DC-48FF-4178-BE0E-580EF6C5F897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>653214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>456982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>987325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>986541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>325478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>161</v>
       </c>
@@ -2554,9 +4097,9 @@
       <c r="E1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2573,7 +4116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2590,7 +4133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2607,7 +4150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2624,7 +4167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2641,7 +4184,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2658,7 +4201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>156</v>
       </c>
